--- a/zillow_data_dictionary.xlsx
+++ b/zillow_data_dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BerkeleyRemoteLab\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BerkeleyRemoteLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,19 +25,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PropertyLandUseTypeID!$A$1:$B$26</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="418">
   <si>
     <t>StoryTypeID</t>
   </si>
@@ -1023,398 +1021,441 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>州代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Type of land use the property is zoned for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地使用类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地允许使用情况描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Census tract and block ID combined - also contains blockgroup assignment by extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口普查以及区域id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口普查以及区域id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neighborhood in which the property is located</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总房间数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主体建造年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院子内的储藏室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院子中的露天平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Number of units the structure is built into (i.e. 2 = duplex, 3 = triplex, etc...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> What type of construction material was used to construct the home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Type of floors in a multi-story house (i.e. basement and main level, split-level, attic, etc.).  See tab for details.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多层房屋的地板类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列22</t>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>facility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>facility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>facility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>facility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>facility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can be dropped or convert to bool because they are all in (NaN,66.0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can be dropped or convert to bool because they are all in (NaN,1.0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5638 types</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>186 cities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>405 zip codes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>528 codes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否2015年财产税到期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>facility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>facility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列12</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet15'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finishedfloor1squarefeet'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decktypeid'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>garagecarcnt'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longitude'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yearbuilt'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assessmentyear'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxdelinquencyyear'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fips'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>区域编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>州代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Type of land use the property is zoned for</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地使用类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地允许使用情况描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Census tract and block ID combined - also contains blockgroup assignment by extension</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人口普查以及区域id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人口普查以及区域id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neighborhood in which the property is located</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总房间数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主体建造年份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>院子内的储藏室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>院子中的露天平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Number of units the structure is built into (i.e. 2 = duplex, 3 = triplex, etc...)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> What type of construction material was used to construct the home</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Type of floors in a multi-story house (i.e. basement and main level, split-level, attic, etc.).  See tab for details.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多层房屋的地板类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列22</t>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>facility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>facility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>policy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>facility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>facility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>construction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>construction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>construction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>construction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>facility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>special</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>can be dropped or convert to bool because they are all in (NaN,66.0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>can be dropped or convert to bool because they are all in (NaN,1.0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>can be dropped or convert to bool because they are all in (NaN,1.0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>can be dropped or convert to bool because they are all in (NaN,1.0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>special</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5638 types</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>special</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>186 cities</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>special</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>405 zip codes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物业编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>528 codes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否2015年财产税到期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>construction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>facility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>facility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>policy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>policy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>construction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>construction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Note</t>
+    <t>propertycountylandusecode'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regionidcity'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1422,7 +1463,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1432,6 +1473,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1458,11 +1508,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1483,13 +1537,16 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F60" totalsRowShown="0">
   <autoFilter ref="A1:F60"/>
+  <sortState ref="A2:F60">
+    <sortCondition ref="F1"/>
+  </sortState>
   <tableColumns count="6">
     <tableColumn id="1" name="列1"/>
     <tableColumn id="2" name="列2"/>
     <tableColumn id="5" name="列22"/>
     <tableColumn id="3" name="列3"/>
     <tableColumn id="4" name="列4"/>
-    <tableColumn id="7" name="列5"/>
+    <tableColumn id="7" name="列12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1758,10 +1815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1771,10 +1828,10 @@
     <col min="3" max="3" width="12.25" customWidth="1"/>
     <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.375" customWidth="1"/>
+    <col min="6" max="7" width="54.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>266</v>
       </c>
@@ -1782,7 +1839,7 @@
         <v>267</v>
       </c>
       <c r="C1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D1" t="s">
         <v>268</v>
@@ -1791,64 +1848,76 @@
         <v>269</v>
       </c>
       <c r="F1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+      <c r="G1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>245</v>
       </c>
       <c r="C2" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="D2" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="E2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C3" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D3" t="s">
         <v>351</v>
       </c>
       <c r="E3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+      <c r="F3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C4" t="s">
-        <v>341</v>
+        <v>398</v>
       </c>
       <c r="D4" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="E4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>189</v>
       </c>
@@ -1856,16 +1925,19 @@
         <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>190</v>
       </c>
@@ -1873,16 +1945,19 @@
         <v>250</v>
       </c>
       <c r="C6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E6" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>191</v>
       </c>
@@ -1890,50 +1965,59 @@
         <v>171</v>
       </c>
       <c r="C7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E7" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="C8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D8" t="s">
         <v>356</v>
       </c>
       <c r="E8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D9" t="s">
+        <v>355</v>
+      </c>
+      <c r="E9" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" t="s">
-        <v>341</v>
-      </c>
-      <c r="D9" t="s">
-        <v>357</v>
-      </c>
-      <c r="E9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>194</v>
       </c>
@@ -1941,104 +2025,122 @@
         <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E10" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
       <c r="D11" t="s">
         <v>359</v>
       </c>
       <c r="E11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" t="s">
+        <v>394</v>
+      </c>
+      <c r="D12" t="s">
+        <v>374</v>
+      </c>
+      <c r="E12" t="s">
+        <v>313</v>
+      </c>
+      <c r="F12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D13" t="s">
+        <v>358</v>
+      </c>
+      <c r="E13" t="s">
         <v>272</v>
       </c>
-      <c r="F11" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" t="s">
-        <v>338</v>
-      </c>
-      <c r="D12" t="s">
-        <v>355</v>
-      </c>
-      <c r="E12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="F13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D15" t="s">
+        <v>359</v>
+      </c>
+      <c r="E15" t="s">
+        <v>279</v>
+      </c>
+      <c r="F15" t="s">
         <v>197</v>
       </c>
-      <c r="B13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" t="s">
-        <v>345</v>
-      </c>
-      <c r="D13" t="s">
-        <v>360</v>
-      </c>
-      <c r="E13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>198</v>
-      </c>
-      <c r="B14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" t="s">
-        <v>342</v>
-      </c>
-      <c r="D14" t="s">
-        <v>360</v>
-      </c>
-      <c r="E14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>199</v>
-      </c>
-      <c r="B15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15" t="s">
-        <v>346</v>
-      </c>
-      <c r="D15" t="s">
-        <v>360</v>
-      </c>
-      <c r="E15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>200</v>
       </c>
@@ -2046,16 +2148,19 @@
         <v>183</v>
       </c>
       <c r="C16" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E16" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>201</v>
       </c>
@@ -2063,33 +2168,39 @@
         <v>184</v>
       </c>
       <c r="C17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E17" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>202</v>
+      <c r="F17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="B18" t="s">
         <v>185</v>
       </c>
       <c r="C18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E18" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>203</v>
       </c>
@@ -2097,437 +2208,512 @@
         <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E19" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" t="s">
+        <v>345</v>
+      </c>
+      <c r="D20" t="s">
+        <v>359</v>
+      </c>
+      <c r="E20" t="s">
+        <v>275</v>
+      </c>
+      <c r="F20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>204</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>281</v>
       </c>
-      <c r="C20" t="s">
-        <v>340</v>
-      </c>
-      <c r="D20" t="s">
-        <v>366</v>
-      </c>
-      <c r="E20" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="C21" t="s">
+        <v>339</v>
+      </c>
+      <c r="D21" t="s">
+        <v>365</v>
+      </c>
+      <c r="E21" t="s">
+        <v>415</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>205</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>282</v>
       </c>
-      <c r="C21" t="s">
-        <v>338</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C22" t="s">
+        <v>337</v>
+      </c>
+      <c r="D22" t="s">
+        <v>360</v>
+      </c>
+      <c r="E22" t="s">
+        <v>283</v>
+      </c>
+      <c r="F22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" t="s">
+        <v>332</v>
+      </c>
+      <c r="D23" t="s">
         <v>361</v>
       </c>
-      <c r="E21" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="E23" t="s">
+        <v>284</v>
+      </c>
+      <c r="F23" t="s">
         <v>206</v>
       </c>
-      <c r="B22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C22" t="s">
-        <v>333</v>
-      </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
+        <v>332</v>
+      </c>
+      <c r="D24" t="s">
         <v>362</v>
       </c>
-      <c r="E22" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="E24" t="s">
+        <v>285</v>
+      </c>
+      <c r="F24" t="s">
         <v>207</v>
       </c>
-      <c r="B23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" t="s">
-        <v>333</v>
-      </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" t="s">
+        <v>286</v>
+      </c>
+      <c r="C25" t="s">
+        <v>337</v>
+      </c>
+      <c r="D25" t="s">
+        <v>354</v>
+      </c>
+      <c r="E25" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26" t="s">
+        <v>288</v>
+      </c>
+      <c r="C26" t="s">
+        <v>348</v>
+      </c>
+      <c r="D26" t="s">
+        <v>352</v>
+      </c>
+      <c r="E26" t="s">
+        <v>289</v>
+      </c>
+      <c r="F26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" t="s">
+        <v>290</v>
+      </c>
+      <c r="C27" t="s">
+        <v>332</v>
+      </c>
+      <c r="D27" t="s">
         <v>363</v>
       </c>
-      <c r="E23" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B24" t="s">
-        <v>286</v>
-      </c>
-      <c r="C24" t="s">
-        <v>338</v>
-      </c>
-      <c r="D24" t="s">
-        <v>355</v>
-      </c>
-      <c r="E24" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>209</v>
-      </c>
-      <c r="B25" t="s">
-        <v>288</v>
-      </c>
-      <c r="C25" t="s">
-        <v>349</v>
-      </c>
-      <c r="D25" t="s">
-        <v>353</v>
-      </c>
-      <c r="E25" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="E27" t="s">
+        <v>291</v>
+      </c>
+      <c r="F27" t="s">
         <v>210</v>
       </c>
-      <c r="B26" t="s">
-        <v>290</v>
-      </c>
-      <c r="C26" t="s">
-        <v>333</v>
-      </c>
-      <c r="D26" t="s">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" t="s">
+        <v>337</v>
+      </c>
+      <c r="D28" t="s">
         <v>364</v>
       </c>
-      <c r="E26" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="E28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F28" t="s">
         <v>211</v>
       </c>
-      <c r="B27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" t="s">
-        <v>338</v>
-      </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>240</v>
+      </c>
+      <c r="B29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C29" t="s">
+        <v>400</v>
+      </c>
+      <c r="D29" t="s">
+        <v>384</v>
+      </c>
+      <c r="E29" t="s">
+        <v>260</v>
+      </c>
+      <c r="F29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" t="s">
+        <v>293</v>
+      </c>
+      <c r="C30" t="s">
+        <v>339</v>
+      </c>
+      <c r="D30" t="s">
         <v>365</v>
       </c>
-      <c r="E27" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>212</v>
-      </c>
-      <c r="B28" t="s">
-        <v>293</v>
-      </c>
-      <c r="C28" t="s">
-        <v>340</v>
-      </c>
-      <c r="D28" t="s">
-        <v>366</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="E30" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="F30" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>213</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>170</v>
       </c>
-      <c r="C29" t="s">
-        <v>335</v>
-      </c>
-      <c r="D29" t="s">
-        <v>366</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="C31" t="s">
+        <v>334</v>
+      </c>
+      <c r="D31" t="s">
+        <v>365</v>
+      </c>
+      <c r="E31" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="F31" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>214</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>296</v>
       </c>
-      <c r="C30" t="s">
-        <v>347</v>
-      </c>
-      <c r="D30" t="s">
-        <v>367</v>
-      </c>
-      <c r="E30" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>215</v>
-      </c>
-      <c r="B31" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" t="s">
-        <v>338</v>
-      </c>
-      <c r="D31" t="s">
-        <v>361</v>
-      </c>
-      <c r="E31" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>216</v>
-      </c>
-      <c r="B32" t="s">
-        <v>304</v>
-      </c>
       <c r="C32" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D32" t="s">
         <v>366</v>
       </c>
       <c r="E32" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+      <c r="F32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D33" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="E33" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+      <c r="F33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B34" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C34" t="s">
         <v>349</v>
       </c>
       <c r="D34" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="E34" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="F34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D35" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="E35" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F35" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+      <c r="G35" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>301</v>
       </c>
       <c r="C36" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="D36" t="s">
         <v>352</v>
       </c>
       <c r="E36" t="s">
+        <v>302</v>
+      </c>
+      <c r="F36" t="s">
+        <v>218</v>
+      </c>
+      <c r="G36" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>219</v>
+      </c>
+      <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>337</v>
+      </c>
+      <c r="D37" t="s">
+        <v>367</v>
+      </c>
+      <c r="E37" t="s">
+        <v>300</v>
+      </c>
+      <c r="F37" t="s">
+        <v>219</v>
+      </c>
+      <c r="G37" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>220</v>
+      </c>
+      <c r="B38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" t="s">
+        <v>332</v>
+      </c>
+      <c r="D38" t="s">
+        <v>351</v>
+      </c>
+      <c r="E38" t="s">
         <v>299</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F38" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>221</v>
+      </c>
+      <c r="B39" t="s">
+        <v>297</v>
+      </c>
+      <c r="C39" t="s">
+        <v>338</v>
+      </c>
+      <c r="D39" t="s">
+        <v>364</v>
+      </c>
+      <c r="E39" t="s">
+        <v>298</v>
+      </c>
+      <c r="F39" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>222</v>
+      </c>
+      <c r="B40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" t="s">
+        <v>336</v>
+      </c>
+      <c r="D40" t="s">
+        <v>370</v>
+      </c>
+      <c r="E40" t="s">
+        <v>308</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="G40" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>223</v>
+      </c>
+      <c r="B41" t="s">
+        <v>309</v>
+      </c>
+      <c r="C41" t="s">
+        <v>335</v>
+      </c>
+      <c r="D41" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>221</v>
-      </c>
-      <c r="B37" t="s">
-        <v>297</v>
-      </c>
-      <c r="C37" t="s">
-        <v>339</v>
-      </c>
-      <c r="D37" t="s">
-        <v>365</v>
-      </c>
-      <c r="E37" t="s">
-        <v>298</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="E41" t="s">
+        <v>310</v>
+      </c>
+      <c r="F41" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>224</v>
+      </c>
+      <c r="B42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" t="s">
+        <v>393</v>
+      </c>
+      <c r="D42" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>222</v>
-      </c>
-      <c r="B38" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" t="s">
-        <v>337</v>
-      </c>
-      <c r="D38" t="s">
-        <v>373</v>
-      </c>
-      <c r="E38" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>223</v>
-      </c>
-      <c r="B39" t="s">
-        <v>310</v>
-      </c>
-      <c r="C39" t="s">
-        <v>336</v>
-      </c>
-      <c r="D39" t="s">
-        <v>374</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="E42" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="F42" t="s">
         <v>224</v>
       </c>
-      <c r="B40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" t="s">
-        <v>396</v>
-      </c>
-      <c r="D40" t="s">
-        <v>375</v>
-      </c>
-      <c r="E40" t="s">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>225</v>
+      </c>
+      <c r="B43" t="s">
         <v>312</v>
-      </c>
-      <c r="F40" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>225</v>
-      </c>
-      <c r="B41" t="s">
-        <v>313</v>
-      </c>
-      <c r="C41" t="s">
-        <v>336</v>
-      </c>
-      <c r="D41" t="s">
-        <v>377</v>
-      </c>
-      <c r="E41" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>226</v>
-      </c>
-      <c r="B42" t="s">
-        <v>168</v>
-      </c>
-      <c r="C42" t="s">
-        <v>397</v>
-      </c>
-      <c r="D42" t="s">
-        <v>377</v>
-      </c>
-      <c r="E42" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>227</v>
-      </c>
-      <c r="B43" t="s">
-        <v>167</v>
       </c>
       <c r="C43" t="s">
         <v>335</v>
       </c>
       <c r="D43" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E43" t="s">
-        <v>316</v>
-      </c>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="F43" t="s">
+        <v>225</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>228</v>
       </c>
@@ -2535,178 +2721,208 @@
         <v>111</v>
       </c>
       <c r="C44" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D44" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E44" t="s">
-        <v>317</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="C45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D45" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E45" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F45" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="G45" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>230</v>
       </c>
       <c r="B46" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C46" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D46" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E46" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F46" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+      <c r="G46" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C47" t="s">
         <v>334</v>
       </c>
       <c r="D47" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E47" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+      <c r="F47" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>231</v>
+      </c>
+      <c r="B48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" t="s">
+        <v>333</v>
+      </c>
+      <c r="D48" t="s">
+        <v>379</v>
+      </c>
+      <c r="E48" t="s">
+        <v>319</v>
+      </c>
+      <c r="F48" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>232</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
+        <v>327</v>
+      </c>
+      <c r="C49" t="s">
+        <v>396</v>
+      </c>
+      <c r="D49" t="s">
+        <v>381</v>
+      </c>
+      <c r="E49" t="s">
         <v>328</v>
       </c>
-      <c r="C48" t="s">
+      <c r="F49" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>239</v>
+      </c>
+      <c r="B50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" t="s">
         <v>399</v>
       </c>
-      <c r="D48" t="s">
-        <v>384</v>
-      </c>
-      <c r="E48" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>233</v>
-      </c>
-      <c r="B49" t="s">
-        <v>326</v>
-      </c>
-      <c r="C49" t="s">
-        <v>398</v>
-      </c>
-      <c r="D49" t="s">
-        <v>365</v>
-      </c>
-      <c r="E49" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>234</v>
-      </c>
-      <c r="B50" t="s">
-        <v>324</v>
-      </c>
-      <c r="C50" t="s">
-        <v>346</v>
-      </c>
       <c r="D50" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="E50" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="F50" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B51" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C51" t="s">
         <v>400</v>
       </c>
       <c r="D51" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="E51" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="F51" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B52" t="s">
-        <v>116</v>
+        <v>256</v>
       </c>
       <c r="C52" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D52" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="E52" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+      <c r="F52" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="B53" t="s">
-        <v>263</v>
+        <v>181</v>
       </c>
       <c r="C53" t="s">
-        <v>342</v>
+        <v>402</v>
       </c>
       <c r="D53" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E53" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>238</v>
       </c>
@@ -2714,115 +2930,136 @@
         <v>117</v>
       </c>
       <c r="C54" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D54" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E54" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
-        <v>402</v>
+        <v>337</v>
       </c>
       <c r="D55" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
       <c r="E55" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+      <c r="F55" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B56" t="s">
-        <v>259</v>
+        <v>325</v>
       </c>
       <c r="C56" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D56" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="E56" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+      <c r="F56" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B57" t="s">
-        <v>257</v>
+        <v>323</v>
       </c>
       <c r="C57" t="s">
-        <v>403</v>
+        <v>345</v>
       </c>
       <c r="D57" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E57" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+      <c r="F57" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B58" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C58" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D58" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E58" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+      <c r="F58" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B59" t="s">
-        <v>256</v>
+        <v>116</v>
       </c>
       <c r="C59" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D59" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="E59" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+      <c r="F59" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="B60" t="s">
-        <v>181</v>
+        <v>263</v>
       </c>
       <c r="C60" t="s">
-        <v>405</v>
+        <v>341</v>
       </c>
       <c r="D60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E60" t="s">
-        <v>253</v>
+        <v>320</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
